--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H2">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>318.6072434643348</v>
+        <v>350.9431328625415</v>
       </c>
       <c r="R2">
-        <v>318.6072434643348</v>
+        <v>3158.488195762873</v>
       </c>
       <c r="S2">
-        <v>0.06415728951711852</v>
+        <v>0.06717280238234781</v>
       </c>
       <c r="T2">
-        <v>0.06415728951711852</v>
+        <v>0.06717280238234781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H3">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>47.68711687822135</v>
+        <v>52.30880937569245</v>
       </c>
       <c r="R3">
-        <v>47.68711687822135</v>
+        <v>470.779284381232</v>
       </c>
       <c r="S3">
-        <v>0.009602657273343494</v>
+        <v>0.01001224695975333</v>
       </c>
       <c r="T3">
-        <v>0.009602657273343494</v>
+        <v>0.01001224695975333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H4">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>154.7642118977653</v>
+        <v>163.7741107586246</v>
       </c>
       <c r="R4">
-        <v>154.7642118977653</v>
+        <v>1473.966996827622</v>
       </c>
       <c r="S4">
-        <v>0.03116455307685148</v>
+        <v>0.03134743195457484</v>
       </c>
       <c r="T4">
-        <v>0.03116455307685148</v>
+        <v>0.03134743195457484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H5">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>659.7625032305423</v>
+        <v>694.0989191654282</v>
       </c>
       <c r="R5">
-        <v>659.7625032305423</v>
+        <v>6246.890272488854</v>
       </c>
       <c r="S5">
-        <v>0.1328550269982768</v>
+        <v>0.1328550558906721</v>
       </c>
       <c r="T5">
-        <v>0.1328550269982768</v>
+        <v>0.1328550558906721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H6">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>98.74907821091223</v>
+        <v>103.4568984278133</v>
       </c>
       <c r="R6">
-        <v>98.74907821091223</v>
+        <v>931.1120858503199</v>
       </c>
       <c r="S6">
-        <v>0.01988490007771991</v>
+        <v>0.01980232448629828</v>
       </c>
       <c r="T6">
-        <v>0.01988490007771991</v>
+        <v>0.01980232448629828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H7">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q7">
-        <v>320.481175323943</v>
+        <v>323.9141120603299</v>
       </c>
       <c r="R7">
-        <v>320.481175323943</v>
+        <v>2915.227008542969</v>
       </c>
       <c r="S7">
-        <v>0.06453463934615872</v>
+        <v>0.06199927167916557</v>
       </c>
       <c r="T7">
-        <v>0.06453463934615872</v>
+        <v>0.06199927167916557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H8">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N8">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q8">
-        <v>2058.168372307286</v>
+        <v>2188.488856596799</v>
       </c>
       <c r="R8">
-        <v>2058.168372307286</v>
+        <v>19696.39970937119</v>
       </c>
       <c r="S8">
-        <v>0.4144491591004161</v>
+        <v>0.4188910273896919</v>
       </c>
       <c r="T8">
-        <v>0.4144491591004161</v>
+        <v>0.4188910273896919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H9">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q9">
-        <v>308.0536231947373</v>
+        <v>326.1988501863289</v>
       </c>
       <c r="R9">
-        <v>308.0536231947373</v>
+        <v>2935.78965167696</v>
       </c>
       <c r="S9">
-        <v>0.06203212857059379</v>
+        <v>0.06243658544388101</v>
       </c>
       <c r="T9">
-        <v>0.06203212857059379</v>
+        <v>0.062436585443881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H10">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q10">
-        <v>999.7600890348244</v>
+        <v>1021.298845402073</v>
       </c>
       <c r="R10">
-        <v>999.7600890348244</v>
+        <v>9191.689608618659</v>
       </c>
       <c r="S10">
-        <v>0.2013196460395212</v>
+        <v>0.1954832538136152</v>
       </c>
       <c r="T10">
-        <v>0.2013196460395212</v>
+        <v>0.1954832538136152</v>
       </c>
     </row>
   </sheetData>
